--- a/дз4.xlsx
+++ b/дз4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polina/Desktop/учеба/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polina/Documents/git99/myfirstrepo99/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4780DA83-48AB-F144-AAA1-57CB54CAD923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B14B41-CABE-1048-A68C-CAA7FEA78D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="460" windowWidth="21500" windowHeight="14420" tabRatio="682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4100" yWindow="460" windowWidth="21500" windowHeight="14420" tabRatio="682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>passed</t>
   </si>
@@ -376,7 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +568,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Основной текст)"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -707,7 +723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -797,9 +813,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -818,6 +831,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -833,30 +870,8 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1253,11 +1268,11 @@
   <sheetPr codeName="Worksheet____5"/>
   <dimension ref="A1:DT56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="11" ySplit="7" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1301,7 +1316,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$37,"failed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1346,7 +1361,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$37,"passed")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1389,7 +1404,9 @@
         <v>7</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22">
+        <v>43943</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="22"/>
       <c r="O3" s="11"/>
@@ -1473,43 +1490,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="49" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="50"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="49" t="s">
+      <c r="L6" s="44" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="44" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="49"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="49"/>
+      <c r="R6" s="44"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="49"/>
+      <c r="T6" s="44"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1519,9 +1536,9 @@
     </row>
     <row r="7" spans="1:124" ht="127" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="42"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="48"/>
-      <c r="D7" s="43"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
@@ -1529,19 +1546,19 @@
         <v>17</v>
       </c>
       <c r="G7" s="48"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="49"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="49"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="49"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="49"/>
+      <c r="R7" s="44"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="49"/>
+      <c r="T7" s="44"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1554,7 +1571,7 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1571,7 +1588,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1607,7 +1626,9 @@
       <c r="I9" s="28"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1643,7 +1664,9 @@
       <c r="I10" s="28"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -1665,7 +1688,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1679,7 +1702,9 @@
       <c r="I11" s="28"/>
       <c r="J11" s="20"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="6"/>
       <c r="O11" s="11"/>
@@ -1700,7 +1725,7 @@
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1717,7 +1742,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="55" t="s">
+        <v>1</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -1742,7 +1769,7 @@
       <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E13" s="40" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1753,119 +1780,121 @@
       <c r="I13" s="31"/>
       <c r="J13" s="30"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="35"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="35"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="34"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="34"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="35"/>
-      <c r="AP13" s="34"/>
-      <c r="AQ13" s="35"/>
-      <c r="AR13" s="34"/>
-      <c r="AS13" s="35"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="35"/>
-      <c r="AV13" s="34"/>
-      <c r="AW13" s="35"/>
-      <c r="AX13" s="34"/>
-      <c r="AY13" s="35"/>
-      <c r="AZ13" s="34"/>
-      <c r="BA13" s="35"/>
-      <c r="BB13" s="34"/>
-      <c r="BC13" s="35"/>
-      <c r="BD13" s="34"/>
-      <c r="BE13" s="35"/>
-      <c r="BF13" s="34"/>
-      <c r="BG13" s="35"/>
-      <c r="BH13" s="34"/>
-      <c r="BI13" s="35"/>
-      <c r="BJ13" s="34"/>
-      <c r="BK13" s="35"/>
-      <c r="BL13" s="34"/>
-      <c r="BM13" s="35"/>
-      <c r="BN13" s="34"/>
-      <c r="BO13" s="35"/>
-      <c r="BP13" s="34"/>
-      <c r="BQ13" s="35"/>
-      <c r="BR13" s="34"/>
-      <c r="BS13" s="35"/>
-      <c r="BT13" s="34"/>
-      <c r="BU13" s="35"/>
-      <c r="BV13" s="34"/>
-      <c r="BW13" s="35"/>
-      <c r="BX13" s="34"/>
-      <c r="BY13" s="35"/>
-      <c r="BZ13" s="36"/>
-      <c r="CA13" s="35"/>
-      <c r="CB13" s="34"/>
-      <c r="CC13" s="35"/>
-      <c r="CD13" s="37"/>
-      <c r="CE13" s="35"/>
-      <c r="CF13" s="34"/>
-      <c r="CG13" s="35"/>
-      <c r="CH13" s="36"/>
-      <c r="CI13" s="35"/>
-      <c r="CJ13" s="34"/>
-      <c r="CK13" s="35"/>
-      <c r="CL13" s="34"/>
-      <c r="CM13" s="35"/>
-      <c r="CN13" s="34"/>
-      <c r="CO13" s="35"/>
-      <c r="CP13" s="34"/>
-      <c r="CQ13" s="35"/>
-      <c r="CR13" s="34"/>
-      <c r="CS13" s="35"/>
-      <c r="CT13" s="34"/>
-      <c r="CU13" s="35"/>
-      <c r="CV13" s="34"/>
-      <c r="CW13" s="35"/>
-      <c r="CX13" s="34"/>
-      <c r="CY13" s="33"/>
-      <c r="CZ13" s="34"/>
-      <c r="DA13" s="33"/>
-      <c r="DB13" s="34"/>
-      <c r="DC13" s="33"/>
-      <c r="DD13" s="34"/>
-      <c r="DE13" s="33"/>
-      <c r="DF13" s="34"/>
-      <c r="DG13" s="33"/>
-      <c r="DH13" s="34"/>
-      <c r="DI13" s="33"/>
-      <c r="DJ13" s="34"/>
-      <c r="DK13" s="34"/>
-      <c r="DL13" s="34"/>
-      <c r="DM13" s="34"/>
-      <c r="DN13" s="38"/>
-      <c r="DO13" s="34"/>
-      <c r="DP13" s="39"/>
-      <c r="DQ13" s="39"/>
-      <c r="DR13" s="39"/>
-      <c r="DS13" s="39"/>
-      <c r="DT13" s="39"/>
+      <c r="L13" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="32"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="33"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="34"/>
+      <c r="AJ13" s="33"/>
+      <c r="AK13" s="34"/>
+      <c r="AL13" s="33"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="33"/>
+      <c r="AO13" s="34"/>
+      <c r="AP13" s="33"/>
+      <c r="AQ13" s="34"/>
+      <c r="AR13" s="33"/>
+      <c r="AS13" s="34"/>
+      <c r="AT13" s="33"/>
+      <c r="AU13" s="34"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="34"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="34"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="34"/>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="34"/>
+      <c r="BD13" s="33"/>
+      <c r="BE13" s="34"/>
+      <c r="BF13" s="33"/>
+      <c r="BG13" s="34"/>
+      <c r="BH13" s="33"/>
+      <c r="BI13" s="34"/>
+      <c r="BJ13" s="33"/>
+      <c r="BK13" s="34"/>
+      <c r="BL13" s="33"/>
+      <c r="BM13" s="34"/>
+      <c r="BN13" s="33"/>
+      <c r="BO13" s="34"/>
+      <c r="BP13" s="33"/>
+      <c r="BQ13" s="34"/>
+      <c r="BR13" s="33"/>
+      <c r="BS13" s="34"/>
+      <c r="BT13" s="33"/>
+      <c r="BU13" s="34"/>
+      <c r="BV13" s="33"/>
+      <c r="BW13" s="34"/>
+      <c r="BX13" s="33"/>
+      <c r="BY13" s="34"/>
+      <c r="BZ13" s="35"/>
+      <c r="CA13" s="34"/>
+      <c r="CB13" s="33"/>
+      <c r="CC13" s="34"/>
+      <c r="CD13" s="36"/>
+      <c r="CE13" s="34"/>
+      <c r="CF13" s="33"/>
+      <c r="CG13" s="34"/>
+      <c r="CH13" s="35"/>
+      <c r="CI13" s="34"/>
+      <c r="CJ13" s="33"/>
+      <c r="CK13" s="34"/>
+      <c r="CL13" s="33"/>
+      <c r="CM13" s="34"/>
+      <c r="CN13" s="33"/>
+      <c r="CO13" s="34"/>
+      <c r="CP13" s="33"/>
+      <c r="CQ13" s="34"/>
+      <c r="CR13" s="33"/>
+      <c r="CS13" s="34"/>
+      <c r="CT13" s="33"/>
+      <c r="CU13" s="34"/>
+      <c r="CV13" s="33"/>
+      <c r="CW13" s="34"/>
+      <c r="CX13" s="33"/>
+      <c r="CY13" s="32"/>
+      <c r="CZ13" s="33"/>
+      <c r="DA13" s="32"/>
+      <c r="DB13" s="33"/>
+      <c r="DC13" s="32"/>
+      <c r="DD13" s="33"/>
+      <c r="DE13" s="32"/>
+      <c r="DF13" s="33"/>
+      <c r="DG13" s="32"/>
+      <c r="DH13" s="33"/>
+      <c r="DI13" s="32"/>
+      <c r="DJ13" s="33"/>
+      <c r="DK13" s="33"/>
+      <c r="DL13" s="33"/>
+      <c r="DM13" s="33"/>
+      <c r="DN13" s="37"/>
+      <c r="DO13" s="33"/>
+      <c r="DP13" s="38"/>
+      <c r="DQ13" s="38"/>
+      <c r="DR13" s="38"/>
+      <c r="DS13" s="38"/>
+      <c r="DT13" s="38"/>
     </row>
     <row r="14" spans="1:124" ht="77" customHeight="1">
       <c r="A14" s="12"/>
@@ -1876,7 +1905,7 @@
       <c r="D14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="41" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1887,7 +1916,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="54" t="s">
+        <v>1</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -1908,7 +1939,7 @@
       <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1950,7 +1981,7 @@
       <c r="D16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="41" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1989,7 +2020,7 @@
       <c r="E17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="42" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="3"/>
@@ -2018,7 +2049,7 @@
       <c r="B18" s="3">
         <v>11</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>43</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2096,7 +2127,7 @@
       <c r="D20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="41" t="s">
         <v>47</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -2158,7 +2189,7 @@
       <c r="B22" s="3">
         <v>15</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -2167,7 +2198,7 @@
       <c r="E22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="42" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="3"/>
@@ -2196,7 +2227,7 @@
       <c r="B23" s="3">
         <v>16</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="39" t="s">
         <v>63</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -3082,6 +3113,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3089,12 +3126,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L14:L37 R14:R37 P14:P37 T14:T37 N14:N37 T8:T12 P8:P12 R8:R12 L8:L12 N8:N12" xr:uid="{00000000-0002-0000-0100-000000000000}">
